--- a/设置课节.xlsx
+++ b/设置课节.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schedule Helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ScheduleHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF88C2-802D-4624-9A8D-742F6CE77D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50163224-0348-48DC-866F-D2D3E0892C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="3060" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
